--- a/燃料油/data_input/高低硫燃料油价差.xlsx
+++ b/燃料油/data_input/高低硫燃料油价差.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3209"/>
+  <dimension ref="A1:I3211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74074,21 +74074,77 @@
         <v>0.25</v>
       </c>
       <c r="D3209" t="n">
-        <v>24.57</v>
-      </c>
-      <c r="E3209" t="inlineStr"/>
+        <v>23.25</v>
+      </c>
+      <c r="E3209" t="n">
+        <v>-9.31</v>
+      </c>
       <c r="F3209" t="n">
-        <v>9.5404</v>
+        <v>8.5341</v>
       </c>
       <c r="G3209" t="n">
-        <v>8.485099999999999</v>
+        <v>8.548</v>
       </c>
       <c r="H3209" t="n">
-        <v>-1.37</v>
+        <v>-1.71</v>
       </c>
       <c r="I3209" t="n">
         <v>487.4163</v>
       </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3210" t="n">
+        <v>59.17</v>
+      </c>
+      <c r="C3210" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D3210" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="E3210" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="F3210" t="n">
+        <v>10.7598</v>
+      </c>
+      <c r="G3210" t="n">
+        <v>9.318099999999999</v>
+      </c>
+      <c r="H3210" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="I3210" t="n">
+        <v>521.8835</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3211" t="n">
+        <v>60.79</v>
+      </c>
+      <c r="C3211" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D3211" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="E3211" t="inlineStr"/>
+      <c r="F3211" t="n">
+        <v>10.5998</v>
+      </c>
+      <c r="G3211" t="n">
+        <v>9.5733</v>
+      </c>
+      <c r="H3211" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="I3211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
